--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_01.08.24_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -498,18 +498,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>21.475</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21.217</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2580000000000027</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,16 +525,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -535,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>288.85</v>
+        <v>61.29</v>
       </c>
       <c r="H3" t="n">
-        <v>287.75</v>
+        <v>61.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.100000000000023</v>
+        <v>0.08999999999999631</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.38</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -553,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -564,7 +574,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -573,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>134.32</v>
+        <v>1412.4</v>
       </c>
       <c r="H4" t="n">
-        <v>133.4</v>
+        <v>1417.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9199999999999875</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +601,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -609,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>132.61</v>
+        <v>0.1005</v>
       </c>
       <c r="H5" t="n">
-        <v>132.1</v>
+        <v>0.09991999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5100000000000193</v>
+        <v>0.0005800000000000111</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.38</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="6">
@@ -627,16 +639,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -645,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6710</v>
+        <v>134.32</v>
       </c>
       <c r="H6" t="n">
-        <v>6687</v>
+        <v>133.4</v>
       </c>
       <c r="I6" t="n">
-        <v>-23</v>
+        <v>0.9199999999999875</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.34</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -674,7 +688,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -683,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>517.95</v>
+        <v>129.14</v>
       </c>
       <c r="H7" t="n">
-        <v>515.2</v>
+        <v>129.92</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>0.7800000000000011</v>
       </c>
       <c r="J7" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -701,16 +715,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -719,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>512.65</v>
+        <v>234.76</v>
       </c>
       <c r="H8" t="n">
-        <v>506.8</v>
+        <v>232.5</v>
       </c>
       <c r="I8" t="n">
-        <v>-5.849999999999966</v>
+        <v>2.259999999999991</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.14</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="9">
@@ -737,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -757,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>234.76</v>
+        <v>3036.2</v>
       </c>
       <c r="H9" t="n">
-        <v>232.5</v>
+        <v>3031.55</v>
       </c>
       <c r="I9" t="n">
-        <v>2.259999999999991</v>
+        <v>4.649999999999636</v>
       </c>
       <c r="J9" t="n">
-        <v>0.96</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10">
@@ -775,13 +791,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>long</t>
@@ -793,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>230.67</v>
+        <v>3024.7</v>
       </c>
       <c r="H10" t="n">
-        <v>229.85</v>
+        <v>3032.1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8199999999999932</v>
+        <v>7.400000000000091</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.36</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="11">
@@ -811,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -822,7 +840,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -831,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1052.8</v>
+        <v>3022</v>
       </c>
       <c r="H11" t="n">
-        <v>1045.4</v>
+        <v>3026.9</v>
       </c>
       <c r="I11" t="n">
-        <v>7.399999999999864</v>
+        <v>4.900000000000091</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="12">
@@ -849,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -869,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1039.4</v>
+        <v>3017.25</v>
       </c>
       <c r="H12" t="n">
-        <v>1042.6</v>
+        <v>3022</v>
       </c>
       <c r="I12" t="n">
-        <v>3.199999999999818</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13">
@@ -887,16 +905,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -905,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1028.8</v>
+        <v>3024.25</v>
       </c>
       <c r="H13" t="n">
-        <v>1030.6</v>
+        <v>3022.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.799999999999955</v>
+        <v>2.050000000000182</v>
       </c>
       <c r="J13" t="n">
-        <v>0.17</v>
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -923,7 +943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -943,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>129.14</v>
+        <v>3010.35</v>
       </c>
       <c r="H14" t="n">
-        <v>129.92</v>
+        <v>2997.55</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7800000000000011</v>
+        <v>-12.79999999999973</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="15">
@@ -961,16 +981,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -979,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>128.7</v>
+        <v>1052.8</v>
       </c>
       <c r="H15" t="n">
-        <v>128.64</v>
+        <v>1045.4</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.06000000000000227</v>
+        <v>7.399999999999864</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.05</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -997,13 +1019,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>long</t>
@@ -1015,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>165.02</v>
+        <v>1039.4</v>
       </c>
       <c r="H16" t="n">
-        <v>164.66</v>
+        <v>1042.6</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3600000000000136</v>
+        <v>3.199999999999818</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.22</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="17">
@@ -1033,7 +1057,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1044,7 +1068,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1053,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1412.4</v>
+        <v>517.95</v>
       </c>
       <c r="H17" t="n">
-        <v>1417.4</v>
+        <v>515.2</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="J17" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="18">
@@ -1071,13 +1095,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>long</t>
@@ -1089,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1410.4</v>
+        <v>34.59</v>
       </c>
       <c r="H18" t="n">
-        <v>1412.6</v>
+        <v>34.935</v>
       </c>
       <c r="I18" t="n">
-        <v>2.199999999999818</v>
+        <v>0.3449999999999989</v>
       </c>
       <c r="J18" t="n">
-        <v>0.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1107,7 +1133,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1127,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>61.29</v>
+        <v>58.93</v>
       </c>
       <c r="H19" t="n">
-        <v>61.2</v>
+        <v>58.74</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08999999999999631</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="J19" t="n">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="20">
@@ -1145,7 +1171,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1163,16 +1189,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>60.78</v>
+        <v>21.104</v>
       </c>
       <c r="H20" t="n">
-        <v>60.68</v>
+        <v>20.831</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1000000000000014</v>
+        <v>-0.2729999999999997</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.16</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="21">
@@ -1181,18 +1207,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1201,16 +1225,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>58.93</v>
+        <v>60.78</v>
       </c>
       <c r="H21" t="n">
-        <v>58.74</v>
+        <v>60.68</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1899999999999977</v>
+        <v>-0.1000000000000014</v>
       </c>
       <c r="J21" t="n">
-        <v>0.32</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="22">
@@ -1219,7 +1243,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1237,16 +1261,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>57.79</v>
+        <v>1410.4</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2</v>
+        <v>1412.6</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.5899999999999963</v>
+        <v>2.199999999999818</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.02</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="23">
@@ -1255,7 +1279,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1273,16 +1297,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>143.8</v>
+        <v>0.09958</v>
       </c>
       <c r="H23" t="n">
-        <v>142.98</v>
+        <v>0.09927999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.8200000000000216</v>
+        <v>-0.0003000000000000086</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.5700000000000001</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="24">
@@ -1291,18 +1315,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1311,16 +1333,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>21.475</v>
+        <v>132.61</v>
       </c>
       <c r="H24" t="n">
-        <v>21.217</v>
+        <v>132.1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2580000000000027</v>
+        <v>-0.5100000000000193</v>
       </c>
       <c r="J24" t="n">
-        <v>1.2</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="25">
@@ -1329,7 +1351,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1347,16 +1369,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>21.104</v>
+        <v>128.7</v>
       </c>
       <c r="H25" t="n">
-        <v>20.831</v>
+        <v>128.64</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2729999999999997</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.29</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="26">
@@ -1365,7 +1387,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1383,16 +1405,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>681.05</v>
+        <v>0.6002</v>
       </c>
       <c r="H26" t="n">
-        <v>679.2</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.849999999999909</v>
+        <v>0.00109999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.27</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="27">
@@ -1401,18 +1423,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1421,16 +1441,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.1005</v>
+        <v>6710</v>
       </c>
       <c r="H27" t="n">
-        <v>0.09992000000000001</v>
+        <v>6687</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0005799999999999972</v>
+        <v>-23</v>
       </c>
       <c r="J27" t="n">
-        <v>0.58</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="28">
@@ -1439,7 +1459,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1457,16 +1477,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.09958</v>
+        <v>230.67</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09927999999999999</v>
+        <v>229.85</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.0003000000000000086</v>
+        <v>-0.8199999999999932</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.3</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="29">
@@ -1475,7 +1495,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1493,16 +1513,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6002000000000001</v>
+        <v>165.02</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6012999999999999</v>
+        <v>164.66</v>
       </c>
       <c r="I29" t="n">
-        <v>0.001099999999999879</v>
+        <v>-0.3600000000000136</v>
       </c>
       <c r="J29" t="n">
-        <v>0.18</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="30">
@@ -1511,18 +1531,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1531,16 +1549,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3036.2</v>
+        <v>1028.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3031.55</v>
+        <v>1030.6</v>
       </c>
       <c r="I30" t="n">
-        <v>4.649999999999636</v>
+        <v>1.799999999999955</v>
       </c>
       <c r="J30" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="31">
@@ -1549,15 +1567,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>long</t>
@@ -1569,16 +1585,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3024.7</v>
+        <v>512.65</v>
       </c>
       <c r="H31" t="n">
-        <v>3032.1</v>
+        <v>506.8</v>
       </c>
       <c r="I31" t="n">
-        <v>7.400000000000091</v>
+        <v>-5.849999999999966</v>
       </c>
       <c r="J31" t="n">
-        <v>0.24</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="32">
@@ -1587,15 +1603,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>long</t>
@@ -1607,16 +1621,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3022</v>
+        <v>34.52</v>
       </c>
       <c r="H32" t="n">
-        <v>3026.9</v>
+        <v>34.425</v>
       </c>
       <c r="I32" t="n">
-        <v>4.900000000000091</v>
+        <v>-0.09500000000000597</v>
       </c>
       <c r="J32" t="n">
-        <v>0.16</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="33">
@@ -1625,15 +1639,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>long</t>
@@ -1645,16 +1657,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3017.25</v>
+        <v>288.85</v>
       </c>
       <c r="H33" t="n">
-        <v>3022</v>
+        <v>287.75</v>
       </c>
       <c r="I33" t="n">
-        <v>4.75</v>
+        <v>-1.100000000000023</v>
       </c>
       <c r="J33" t="n">
-        <v>0.16</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="34">
@@ -1663,18 +1675,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1683,16 +1693,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3024.25</v>
+        <v>57.79</v>
       </c>
       <c r="H34" t="n">
-        <v>3022.2</v>
+        <v>57.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.050000000000182</v>
+        <v>-0.5899999999999963</v>
       </c>
       <c r="J34" t="n">
-        <v>0.06999999999999999</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="35">
@@ -1701,15 +1711,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>long</t>
@@ -1721,16 +1729,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3010.35</v>
+        <v>681.05</v>
       </c>
       <c r="H35" t="n">
-        <v>2997.55</v>
+        <v>679.2</v>
       </c>
       <c r="I35" t="n">
-        <v>-12.79999999999973</v>
+        <v>-1.849999999999909</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.43</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="36">
@@ -1739,15 +1747,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>long</t>
@@ -1759,52 +1765,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>34.59</v>
+        <v>143.8</v>
       </c>
       <c r="H36" t="n">
-        <v>34.935</v>
+        <v>142.98</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3449999999999989</v>
+        <v>-0.8200000000000216</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>RUAL</t>
-        </is>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>34.52</v>
-      </c>
-      <c r="H37" t="n">
-        <v>34.425</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-0.09500000000000597</v>
-      </c>
-      <c r="J37" t="n">
-        <v>-0.28</v>
+        <v>-0.5700000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2085,13 +2055,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002799999999999886</v>
+        <v>0.0002800000000000025</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0001399999999999943</v>
+        <v>0.0001400000000000012</v>
       </c>
       <c r="E12" t="n">
         <v>0.28</v>
@@ -2151,13 +2121,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001099999999999879</v>
+        <v>0.00109999999999999</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001099999999999879</v>
+        <v>0.00109999999999999</v>
       </c>
       <c r="E15" t="n">
         <v>0.18</v>
@@ -2253,24 +2223,6 @@
       <c r="F19" t="n">
         <v>-0.57</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
